--- a/biology/Botanique/Parc_de_Töölönlahti/Parc_de_Töölönlahti.xlsx
+++ b/biology/Botanique/Parc_de_Töölönlahti/Parc_de_Töölönlahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_T%C3%B6%C3%B6l%C3%B6nlahti</t>
+          <t>Parc_de_Töölönlahti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Töölönlahti (en finnois : Töölönlahden puisto est un parc public situé dans le centre d'Helsinki, sur la rive sud de la baie de Töölö dans le quartier de Kluuvi à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Töölönlahti (en finnois : Töölönlahden puisto est un parc public situé dans le centre d'Helsinki, sur la rive sud de la baie de Töölö dans le quartier de Kluuvi à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_T%C3%B6%C3%B6l%C3%B6nlahti</t>
+          <t>Parc_de_Töölönlahti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Töölönlahti est bordé par le parc d'Hesperia à l'ouest, la voie ferrée principale à l'est ainsi que la rue Töölönlahdenkatu et le parc Makasiinipuisto au sud.
 Le parc a été achevé à l'été 2016 sur le site de l'ancienne gare de marchandises de Töölö, quelques années après la démolition du chemin de fer du port d'Helsinki et des entrepôts de VR.
-Le parc de Töölönlahti et le parc Eläintarha au nord de Töölönlahti, font partie du parc central d'Helsinki[2].
+Le parc de Töölönlahti et le parc Eläintarha au nord de Töölönlahti, font partie du parc central d'Helsinki.
 La Biofore-talo est bâtie en bordure du parc.
 </t>
         </is>
